--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -382,7 +382,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="FFFFFFFF"/>
@@ -391,12 +391,6 @@
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="009BBB59"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -414,7 +408,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Go XLSX"/>
-  <workbookPr showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="proto_id" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="@Types" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="proto_index" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="@Types" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -91,10 +90,12 @@
     <t>msg.BT_PickItem</t>
   </si>
   <si>
-    <t>msg.C2GW_ReqLogin</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetLogin</t>
+    <t xml:space="preserve">msg.C2GW_ReqLogin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg.GW2C_RetLogin
+</t>
   </si>
   <si>
     <t>msg.GW2C_SendUserInfo</t>
@@ -187,6 +188,96 @@
     <t>msg.RS2GW_RetUserDisconnect</t>
   </si>
   <si>
+    <t>msg.RS2MS_ReqRegist</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_RetRegist</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_HeartBeat</t>
+  </si>
+  <si>
+    <t>msg.GateSimpleInfo</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_GateInfo</t>
+  </si>
+  <si>
+    <t>msg.MS2RS_CreateRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_RetCreateRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_DeleteRoom</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_UpdateRewardPool</t>
+  </si>
+  <si>
+    <t>msg.GW2C_MsgNotify</t>
+  </si>
+  <si>
+    <t>msg.GW2C_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.GW2MS_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.RS2MS_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.MS2GW_MsgNotice</t>
+  </si>
+  <si>
+    <t>msg.EntityBase</t>
+  </si>
+  <si>
+    <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.UserBase</t>
+  </si>
+  <si>
+    <t>msg.UserAddress</t>
+  </si>
+  <si>
+    <t>msg.ItemData</t>
+  </si>
+  <si>
+    <t>msg.ItemBin</t>
+  </si>
+  <si>
+    <t>msg.Serialize</t>
+  </si>
+  <si>
+    <t>msg.MS2Server_BroadCast</t>
+  </si>
+  <si>
+    <t>msg.C2GW_AddDeliveryAddress</t>
+  </si>
+  <si>
+    <t>msg.C2GW_DelDeliveryAddress</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ChangeDeliveryAddress</t>
+  </si>
+  <si>
+    <t>msg.GW2C_SendDeliveryAddressList</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqRechargeMoney</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetRechargeMoney</t>
+  </si>
+  <si>
+    <t>msg.C2GW_PlatformRechargeDone</t>
+  </si>
+  <si>
     <t>msg.C2GW_BuyItem</t>
   </si>
   <si>
@@ -227,96 +318,6 @@
   </si>
   <si>
     <t>msg.C2GW_SellBagItem</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_ReqRegist</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_RetRegist</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_HeartBeat</t>
-  </si>
-  <si>
-    <t>msg.GateSimpleInfo</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_GateInfo</t>
-  </si>
-  <si>
-    <t>msg.MS2RS_CreateRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_RetCreateRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_DeleteRoom</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_UpdateRewardPool</t>
-  </si>
-  <si>
-    <t>msg.GW2C_MsgNotify</t>
-  </si>
-  <si>
-    <t>msg.GW2C_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.GW2MS_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.RS2MS_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.MS2GW_MsgNotice</t>
-  </si>
-  <si>
-    <t>msg.EntityBase</t>
-  </si>
-  <si>
-    <t>msg.SimpleCounter</t>
-  </si>
-  <si>
-    <t>msg.UserBase</t>
-  </si>
-  <si>
-    <t>msg.UserAddress</t>
-  </si>
-  <si>
-    <t>msg.ItemData</t>
-  </si>
-  <si>
-    <t>msg.ItemBin</t>
-  </si>
-  <si>
-    <t>msg.Serialize</t>
-  </si>
-  <si>
-    <t>msg.MS2Server_BroadCast</t>
-  </si>
-  <si>
-    <t>msg.C2GW_AddDeliveryAddress</t>
-  </si>
-  <si>
-    <t>msg.C2GW_DelDeliveryAddress</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ChangeDeliveryAddress</t>
-  </si>
-  <si>
-    <t>msg.GW2C_SendDeliveryAddressList</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqRechargeMoney</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetRechargeMoney</t>
-  </si>
-  <si>
-    <t>msg.C2GW_PlatformRechargeDone</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -374,49 +375,48 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="0"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="00000000"/>
-      </patternFill>
+      <patternFill/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,7 +490,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -525,7 +524,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,16 +558,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -691,939 +693,875 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50" customWidth="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2">
+      <c r="A7" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2">
+      <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2">
+      <c r="A9" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2">
+      <c r="A11" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2">
+      <c r="A12" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2">
+      <c r="A13" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2">
+      <c r="A14" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2">
+      <c r="A15" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2">
+      <c r="A16" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2">
+      <c r="A17" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2">
+      <c r="A18" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2">
+      <c r="A19" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2">
+      <c r="A20" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2">
+      <c r="A21" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2">
+      <c r="A22" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2">
+      <c r="A23" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2">
+      <c r="A26" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2">
+      <c r="A27" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2">
+      <c r="A28" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2">
+      <c r="A29" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2">
+      <c r="A30" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2">
+      <c r="A31" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2">
+      <c r="A32" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2">
+      <c r="A33" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
+    <row r="34" spans="1:2">
+      <c r="A34" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
+    <row r="35" spans="1:2">
+      <c r="A35" t="n">
         <v>31</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
+    <row r="36" spans="1:2">
+      <c r="A36" t="n">
         <v>32</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2">
+      <c r="A37" t="n">
         <v>33</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
+    <row r="38" spans="1:2">
+      <c r="A38" t="n">
         <v>34</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
+    <row r="39" spans="1:2">
+      <c r="A39" t="n">
         <v>35</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2">
+      <c r="A40" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
+    <row r="41" spans="1:2">
+      <c r="A41" t="n">
         <v>37</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2">
+      <c r="A42" t="n">
         <v>38</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2">
+      <c r="A43" t="n">
         <v>39</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
+    <row r="44" spans="1:2">
+      <c r="A44" t="n">
         <v>40</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
+    <row r="45" spans="1:2">
+      <c r="A45" t="n">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2">
+      <c r="A46" t="n">
         <v>42</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
+    <row r="47" spans="1:2">
+      <c r="A47" t="n">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
+    <row r="48" spans="1:2">
+      <c r="A48" t="n">
         <v>44</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
+    <row r="49" spans="1:2">
+      <c r="A49" t="n">
         <v>45</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
+    <row r="50" spans="1:2">
+      <c r="A50" t="n">
         <v>46</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
+    <row r="51" spans="1:2">
+      <c r="A51" t="n">
         <v>47</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
+    <row r="52" spans="1:2">
+      <c r="A52" t="n">
         <v>48</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
+    <row r="53" spans="1:2">
+      <c r="A53" t="n">
         <v>49</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
+    <row r="54" spans="1:2">
+      <c r="A54" t="n">
         <v>50</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
+    <row r="55" spans="1:2">
+      <c r="A55" t="n">
         <v>51</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
+    <row r="56" spans="1:2">
+      <c r="A56" t="n">
         <v>52</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
+    <row r="57" spans="1:2">
+      <c r="A57" t="n">
         <v>53</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
+    <row r="58" spans="1:2">
+      <c r="A58" t="n">
         <v>54</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
+    <row r="59" spans="1:2">
+      <c r="A59" t="n">
         <v>55</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
+    <row r="60" spans="1:2">
+      <c r="A60" t="n">
         <v>56</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
+    <row r="61" spans="1:2">
+      <c r="A61" t="n">
         <v>57</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
+    <row r="62" spans="1:2">
+      <c r="A62" t="n">
         <v>58</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
+    <row r="63" spans="1:2">
+      <c r="A63" t="n">
         <v>59</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
+    <row r="64" spans="1:2">
+      <c r="A64" t="n">
         <v>60</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
+    <row r="65" spans="1:2">
+      <c r="A65" t="n">
         <v>61</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1">
+    <row r="66" spans="1:2">
+      <c r="A66" t="n">
         <v>62</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
+    <row r="67" spans="1:2">
+      <c r="A67" t="n">
         <v>63</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
+    <row r="68" spans="1:2">
+      <c r="A68" t="n">
         <v>64</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
+    <row r="69" spans="1:2">
+      <c r="A69" t="n">
         <v>65</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
+    <row r="70" spans="1:2">
+      <c r="A70" t="n">
         <v>66</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
+    <row r="71" spans="1:2">
+      <c r="A71" t="n">
         <v>67</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
+    <row r="72" spans="1:2">
+      <c r="A72" t="n">
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
+    <row r="73" spans="1:2">
+      <c r="A73" t="n">
         <v>69</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
+    <row r="74" spans="1:2">
+      <c r="A74" t="n">
         <v>70</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
+    <row r="75" spans="1:2">
+      <c r="A75" t="n">
         <v>71</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
+    <row r="76" spans="1:2">
+      <c r="A76" t="n">
         <v>72</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
+    <row r="77" spans="1:2">
+      <c r="A77" t="n">
         <v>73</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
+    <row r="78" spans="1:2">
+      <c r="A78" t="n">
         <v>74</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
+    <row r="79" spans="1:2">
+      <c r="A79" t="n">
         <v>75</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
+    <row r="80" spans="1:2">
+      <c r="A80" t="n">
         <v>76</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
+    <row r="81" spans="1:2">
+      <c r="A81" t="n">
         <v>77</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1">
+    <row r="82" spans="1:2">
+      <c r="A82" t="n">
         <v>78</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
+    <row r="83" spans="1:2">
+      <c r="A83" t="n">
         <v>79</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
+    <row r="84" spans="1:2">
+      <c r="A84" t="n">
         <v>80</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
+    <row r="85" spans="1:2">
+      <c r="A85" t="n">
         <v>81</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
+    <row r="86" spans="1:2">
+      <c r="A86" t="n">
         <v>82</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
+    <row r="87" spans="1:2">
+      <c r="A87" t="n">
         <v>83</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
+    <row r="88" spans="1:2">
+      <c r="A88" t="n">
         <v>84</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
+    <row r="89" spans="1:2">
+      <c r="A89" t="n">
         <v>85</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
+    <row r="90" spans="1:2">
+      <c r="A90" t="n">
         <v>86</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
+    <row r="91" spans="1:2">
+      <c r="A91" t="n">
         <v>87</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
+    <row r="92" spans="1:2">
+      <c r="A92" t="n">
         <v>88</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
+    <row r="93" spans="1:2">
+      <c r="A93" t="n">
         <v>89</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
+    <row r="94" spans="1:2">
+      <c r="A94" t="n">
         <v>90</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
+    <row r="95" spans="1:2">
+      <c r="A95" t="n">
         <v>91</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
+    <row r="96" spans="1:2">
+      <c r="A96" t="n">
         <v>92</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1">
+    <row r="97" spans="1:2">
+      <c r="A97" t="n">
         <v>93</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.5"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="proto_index" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="@Types" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="proto_id" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="@Types" sheetId="2" r:id="rId2" state="visible"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -90,12 +91,10 @@
     <t>msg.BT_PickItem</t>
   </si>
   <si>
-    <t xml:space="preserve">msg.C2GW_ReqLogin
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msg.GW2C_RetLogin
-</t>
+    <t>msg.C2GW_ReqLogin</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetLogin</t>
   </si>
   <si>
     <t>msg.GW2C_SendUserInfo</t>
@@ -188,6 +187,48 @@
     <t>msg.RS2GW_RetUserDisconnect</t>
   </si>
   <si>
+    <t>msg.C2GW_BuyItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AddPackageItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RemovePackageItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateYuanbao</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateCoupon</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateFreeStep</t>
+  </si>
+  <si>
+    <t>msg.DeliveryGoods</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqDeliveryGoods</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqDeliveryDiamond</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetDeliveryDiamond</t>
+  </si>
+  <si>
+    <t>msg.BigRewardItem</t>
+  </si>
+  <si>
+    <t>msg.Sync_BigRewardPickNum</t>
+  </si>
+  <si>
+    <t>msg.C2GW_UseBagItem</t>
+  </si>
+  <si>
+    <t>msg.C2GW_SellBagItem</t>
+  </si>
+  <si>
     <t>msg.RS2MS_ReqRegist</t>
   </si>
   <si>
@@ -276,48 +317,6 @@
   </si>
   <si>
     <t>msg.C2GW_PlatformRechargeDone</t>
-  </si>
-  <si>
-    <t>msg.C2GW_BuyItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_AddPackageItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RemovePackageItem</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateYuanbao</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateCoupon</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UpdateFreeStep</t>
-  </si>
-  <si>
-    <t>msg.DeliveryGoods</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqDeliveryGoods</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqDeliveryDiamond</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetDeliveryDiamond</t>
-  </si>
-  <si>
-    <t>msg.BigRewardItem</t>
-  </si>
-  <si>
-    <t>msg.Sync_BigRewardPickNum</t>
-  </si>
-  <si>
-    <t>msg.C2GW_UseBagItem</t>
-  </si>
-  <si>
-    <t>msg.C2GW_SellBagItem</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -375,48 +374,55 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009BBB59"/>
+        <bgColor rgb="00000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="1" applyFill="1" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,6 +496,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -524,6 +531,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -558,20 +566,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -693,875 +697,939 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="50" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="50" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="n">
+      <c r="B4" s="2" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="n">
+    <row r="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="n">
+    <row r="7">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="n">
+    <row r="8">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="n">
+    <row r="9">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="n">
+    <row r="10">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="n">
+    <row r="11">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="n">
+    <row r="12">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="n">
+    <row r="13">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="n">
+    <row r="14">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="n">
+    <row r="15">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="n">
+    <row r="16">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="n">
+    <row r="17">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="n">
+    <row r="18">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="n">
+    <row r="19">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="n">
+    <row r="20">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="n">
+    <row r="21">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="n">
+    <row r="22">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="n">
+    <row r="23">
+      <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="n">
+    <row r="24">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="n">
+    <row r="25">
+      <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="n">
+    <row r="26">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="n">
+    <row r="27">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="n">
+    <row r="28">
+      <c r="A28" s="1">
         <v>24</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="n">
+    <row r="29">
+      <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="n">
+    <row r="30">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="n">
+    <row r="31">
+      <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="n">
+    <row r="32">
+      <c r="A32" s="1">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="n">
+    <row r="33">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="n">
+    <row r="34">
+      <c r="A34" s="1">
         <v>30</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="n">
+    <row r="35">
+      <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="n">
+    <row r="36">
+      <c r="A36" s="1">
         <v>32</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="n">
+    <row r="37">
+      <c r="A37" s="1">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="n">
+    <row r="38">
+      <c r="A38" s="1">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="n">
+    <row r="39">
+      <c r="A39" s="1">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="n">
+    <row r="40">
+      <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="n">
+    <row r="41">
+      <c r="A41" s="1">
         <v>37</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="n">
+    <row r="42">
+      <c r="A42" s="1">
         <v>38</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="n">
+    <row r="43">
+      <c r="A43" s="1">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="n">
+    <row r="44">
+      <c r="A44" s="1">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="n">
+    <row r="45">
+      <c r="A45" s="1">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="n">
+    <row r="46">
+      <c r="A46" s="1">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="n">
+    <row r="47">
+      <c r="A47" s="1">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="n">
+    <row r="48">
+      <c r="A48" s="1">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="n">
+    <row r="49">
+      <c r="A49" s="1">
         <v>45</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="n">
+    <row r="50">
+      <c r="A50" s="1">
         <v>46</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="n">
+    <row r="51">
+      <c r="A51" s="1">
         <v>47</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="n">
+    <row r="52">
+      <c r="A52" s="1">
         <v>48</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="n">
+    <row r="53">
+      <c r="A53" s="1">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="n">
+    <row r="54">
+      <c r="A54" s="1">
         <v>50</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="n">
+    <row r="55">
+      <c r="A55" s="1">
         <v>51</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="n">
+    <row r="56">
+      <c r="A56" s="1">
         <v>52</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="n">
+    <row r="57">
+      <c r="A57" s="1">
         <v>53</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="n">
+    <row r="58">
+      <c r="A58" s="1">
         <v>54</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="n">
+    <row r="59">
+      <c r="A59" s="1">
         <v>55</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="n">
+    <row r="60">
+      <c r="A60" s="1">
         <v>56</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="n">
+    <row r="61">
+      <c r="A61" s="1">
         <v>57</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="n">
+    <row r="62">
+      <c r="A62" s="1">
         <v>58</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="n">
+    <row r="63">
+      <c r="A63" s="1">
         <v>59</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="n">
+    <row r="64">
+      <c r="A64" s="1">
         <v>60</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="n">
+    <row r="65">
+      <c r="A65" s="1">
         <v>61</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="n">
+    <row r="66">
+      <c r="A66" s="1">
         <v>62</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="n">
+    <row r="67">
+      <c r="A67" s="1">
         <v>63</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="n">
+    <row r="68">
+      <c r="A68" s="1">
         <v>64</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="n">
+    <row r="69">
+      <c r="A69" s="1">
         <v>65</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="n">
+    <row r="70">
+      <c r="A70" s="1">
         <v>66</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="n">
+    <row r="71">
+      <c r="A71" s="1">
         <v>67</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="n">
+    <row r="72">
+      <c r="A72" s="1">
         <v>68</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="n">
+    <row r="73">
+      <c r="A73" s="1">
         <v>69</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="n">
+    <row r="74">
+      <c r="A74" s="1">
         <v>70</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="n">
+    <row r="75">
+      <c r="A75" s="1">
         <v>71</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="n">
+    <row r="76">
+      <c r="A76" s="1">
         <v>72</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="n">
+    <row r="77">
+      <c r="A77" s="1">
         <v>73</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="n">
+    <row r="78">
+      <c r="A78" s="1">
         <v>74</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="n">
+    <row r="79">
+      <c r="A79" s="1">
         <v>75</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="n">
+    <row r="80">
+      <c r="A80" s="1">
         <v>76</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="n">
+    <row r="81">
+      <c r="A81" s="1">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="n">
+    <row r="82">
+      <c r="A82" s="1">
         <v>78</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="n">
+    <row r="83">
+      <c r="A83" s="1">
         <v>79</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="n">
+    <row r="84">
+      <c r="A84" s="1">
         <v>80</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="n">
+    <row r="85">
+      <c r="A85" s="1">
         <v>81</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="n">
+    <row r="86">
+      <c r="A86" s="1">
         <v>82</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="n">
+    <row r="87">
+      <c r="A87" s="1">
         <v>83</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="n">
+    <row r="88">
+      <c r="A88" s="1">
         <v>84</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="n">
+    <row r="89">
+      <c r="A89" s="1">
         <v>85</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="n">
+    <row r="90">
+      <c r="A90" s="1">
         <v>86</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="n">
+    <row r="91">
+      <c r="A91" s="1">
         <v>87</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="n">
+    <row r="92">
+      <c r="A92" s="1">
         <v>88</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="n">
+    <row r="93">
+      <c r="A93" s="1">
         <v>89</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="n">
+    <row r="94">
+      <c r="A94" s="1">
         <v>90</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="n">
+    <row r="95">
+      <c r="A95" s="1">
         <v>91</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="n">
+    <row r="96">
+      <c r="A96" s="1">
         <v>92</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="n">
+    <row r="97">
+      <c r="A97" s="1">
         <v>93</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="70" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -91,6 +91,30 @@
     <t>msg.BT_PickItem</t>
   </si>
   <si>
+    <t>msg.C2GW_UpdateScore</t>
+  </si>
+  <si>
+    <t>msg.SortInfo</t>
+  </si>
+  <si>
+    <t>msg.GW2C_SortNearBy</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqSort</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetSort</t>
+  </si>
+  <si>
+    <t>msg.GW2C_ScoreReturn</t>
+  </si>
+  <si>
+    <t>msg.MySort</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UserInfo</t>
+  </si>
+  <si>
     <t>msg.C2GW_ReqLogin</t>
   </si>
   <si>
@@ -100,9 +124,6 @@
     <t>msg.GW2C_SendUserInfo</t>
   </si>
   <si>
-    <t>msg.GW2C_SendUserPlatformMoney</t>
-  </si>
-  <si>
     <t>msg.C2GW_HeartBeat</t>
   </si>
   <si>
@@ -211,12 +232,6 @@
     <t>msg.C2GW_ReqDeliveryGoods</t>
   </si>
   <si>
-    <t>msg.C2GW_ReqDeliveryDiamond</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetDeliveryDiamond</t>
-  </si>
-  <si>
     <t>msg.BigRewardItem</t>
   </si>
   <si>
@@ -295,9 +310,6 @@
     <t>msg.Serialize</t>
   </si>
   <si>
-    <t>msg.MS2Server_BroadCast</t>
-  </si>
-  <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
   </si>
   <si>
@@ -314,9 +326,6 @@
   </si>
   <si>
     <t>msg.GW2C_RetRechargeMoney</t>
-  </si>
-  <si>
-    <t>msg.C2GW_PlatformRechargeDone</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -746,7 +755,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1530,6 +1539,30 @@
       </c>
       <c r="B97" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1568,59 +1601,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -91,30 +91,6 @@
     <t>msg.BT_PickItem</t>
   </si>
   <si>
-    <t>msg.C2GW_UpdateScore</t>
-  </si>
-  <si>
-    <t>msg.SortInfo</t>
-  </si>
-  <si>
-    <t>msg.GW2C_SortNearBy</t>
-  </si>
-  <si>
-    <t>msg.C2GW_ReqSort</t>
-  </si>
-  <si>
-    <t>msg.GW2C_RetSort</t>
-  </si>
-  <si>
-    <t>msg.GW2C_ScoreReturn</t>
-  </si>
-  <si>
-    <t>msg.MySort</t>
-  </si>
-  <si>
-    <t>msg.GW2C_UserInfo</t>
-  </si>
-  <si>
     <t>msg.C2GW_ReqLogin</t>
   </si>
   <si>
@@ -124,6 +100,9 @@
     <t>msg.GW2C_SendUserInfo</t>
   </si>
   <si>
+    <t>msg.GW2C_SendUserPlatformMoney</t>
+  </si>
+  <si>
     <t>msg.C2GW_HeartBeat</t>
   </si>
   <si>
@@ -232,6 +211,12 @@
     <t>msg.C2GW_ReqDeliveryGoods</t>
   </si>
   <si>
+    <t>msg.C2GW_ReqDeliveryDiamond</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetDeliveryDiamond</t>
+  </si>
+  <si>
     <t>msg.BigRewardItem</t>
   </si>
   <si>
@@ -310,6 +295,9 @@
     <t>msg.Serialize</t>
   </si>
   <si>
+    <t>msg.MS2Server_BroadCast</t>
+  </si>
+  <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
   </si>
   <si>
@@ -326,6 +314,9 @@
   </si>
   <si>
     <t>msg.GW2C_RetRechargeMoney</t>
+  </si>
+  <si>
+    <t>msg.C2GW_PlatformRechargeDone</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -755,7 +746,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1539,30 +1530,6 @@
       </c>
       <c r="B97" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>94</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>95</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>96</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1601,59 +1568,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>msg.L2C_RetLogin</t>
+  </si>
+  <si>
+    <t>msg.C2L_ReqRegistAuthCode</t>
   </si>
   <si>
     <t>msg.C2L_ReqRegistAccount</t>
@@ -746,7 +749,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1530,6 +1533,14 @@
       </c>
       <c r="B97" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1568,59 +1579,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -71,18 +71,6 @@
   </si>
   <si>
     <t>msg.BT_GameOver</t>
-  </si>
-  <si>
-    <t>msg.BT_JumpPreCheck</t>
-  </si>
-  <si>
-    <t>msg.BT_RetJumpPreCheck</t>
-  </si>
-  <si>
-    <t>msg.BT_ReqJumpStep</t>
-  </si>
-  <si>
-    <t>msg.BT_RetJumpStep</t>
   </si>
   <si>
     <t>msg.BT_ReqQuitGameRoom</t>
@@ -749,7 +737,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1509,38 +1497,6 @@
       </c>
       <c r="B94" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>91</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>92</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>93</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>94</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1579,59 +1535,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>msg.BT_PickItem</t>
+  </si>
+  <si>
+    <t>msg.BT_UpdateMoney</t>
   </si>
   <si>
     <t>msg.C2GW_ReqLogin</t>
@@ -737,7 +740,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1497,6 +1500,14 @@
       </c>
       <c r="B94" s="1" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>91</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1535,59 +1546,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>msg.C2GW_Get7DayReward</t>
+  </si>
+  <si>
+    <t>msg.C2GW_SendWechatAuthCode</t>
   </si>
   <si>
     <t>msg.C2L_ReqLogin</t>
@@ -740,7 +743,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1508,6 +1511,14 @@
       </c>
       <c r="B95" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1546,59 +1557,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Id</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.UserWechat</t>
   </si>
   <si>
     <t>msg.UserBase</t>
@@ -743,7 +746,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1519,6 +1522,14 @@
       </c>
       <c r="B96" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>93</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1557,59 +1568,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Id</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>msg.C2GW_PlatformRechargeDone</t>
+  </si>
+  <si>
+    <t>msg.GW2C_SendWechatInfo</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -746,7 +749,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1530,6 +1533,14 @@
       </c>
       <c r="B97" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>94</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1568,59 +1579,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Id</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>msg.GW2C_SendWechatInfo</t>
+  </si>
+  <si>
+    <t>msg.C2GW_StartLuckyDraw</t>
+  </si>
+  <si>
+    <t>msg.GW2C_LuckyDrawHit</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -749,7 +755,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1541,6 +1547,22 @@
       </c>
       <c r="B98" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>95</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>96</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1579,59 +1601,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>msg.GW2C_RemovePackageItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_UpdateGold</t>
   </si>
   <si>
     <t>msg.GW2C_UpdateYuanbao</t>
@@ -755,7 +758,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1563,6 +1566,14 @@
       </c>
       <c r="B100" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>97</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1601,59 +1612,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>msg.RS2GW_RetUserDisconnect</t>
+  </si>
+  <si>
+    <t>msg.GW2RS_MsgTransfer</t>
   </si>
   <si>
     <t>msg.C2GW_BuyItem</t>
@@ -758,7 +761,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1574,6 +1577,14 @@
       </c>
       <c r="B101" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>98</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1612,59 +1623,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>msg.GW2RS_MsgTransfer</t>
+  </si>
+  <si>
+    <t>msg.RS2GW_MsgTransfer</t>
   </si>
   <si>
     <t>msg.C2GW_BuyItem</t>
@@ -761,7 +764,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1585,6 +1588,14 @@
       </c>
       <c r="B102" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1623,59 +1634,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Id</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>msg.SimpleCounter</t>
+  </si>
+  <si>
+    <t>msg.FreePresentMoney</t>
   </si>
   <si>
     <t>msg.UserWechat</t>
@@ -764,7 +767,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1596,6 +1599,14 @@
       </c>
       <c r="B103" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1634,59 +1645,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Id</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>msg.GW2C_LuckyDrawHit</t>
+  </si>
+  <si>
+    <t>msg.GW2C_FreePresentNotify</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -767,7 +770,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1607,6 +1610,14 @@
       </c>
       <c r="B104" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1645,59 +1656,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Id</t>
   </si>
@@ -292,6 +292,12 @@
     <t>msg.UserWechat</t>
   </si>
   <si>
+    <t>msg.UserTask</t>
+  </si>
+  <si>
+    <t>msg.TaskData</t>
+  </si>
+  <si>
     <t>msg.UserBase</t>
   </si>
   <si>
@@ -341,6 +347,9 @@
   </si>
   <si>
     <t>msg.GW2C_FreePresentNotify</t>
+  </si>
+  <si>
+    <t>msg.GW2C_SendTaskList</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -770,7 +779,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B105"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1618,6 +1627,30 @@
       </c>
       <c r="B105" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1656,59 +1689,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -73,15 +73,24 @@
     <t>msg.BT_GameOver</t>
   </si>
   <si>
+    <t>msg.BT_JumpPreCheck</t>
+  </si>
+  <si>
+    <t>msg.BT_RetJumpPreCheck</t>
+  </si>
+  <si>
+    <t>msg.BT_ReqJumpStep</t>
+  </si>
+  <si>
+    <t>msg.BT_RetJumpStep</t>
+  </si>
+  <si>
     <t>msg.BT_ReqQuitGameRoom</t>
   </si>
   <si>
     <t>msg.BT_PickItem</t>
   </si>
   <si>
-    <t>msg.BT_UpdateMoney</t>
-  </si>
-  <si>
     <t>msg.C2GW_ReqLogin</t>
   </si>
   <si>
@@ -112,18 +121,12 @@
     <t>msg.C2GW_Get7DayReward</t>
   </si>
   <si>
-    <t>msg.C2GW_SendWechatAuthCode</t>
-  </si>
-  <si>
     <t>msg.C2L_ReqLogin</t>
   </si>
   <si>
     <t>msg.L2C_RetLogin</t>
   </si>
   <si>
-    <t>msg.C2L_ReqRegistAuthCode</t>
-  </si>
-  <si>
     <t>msg.C2L_ReqRegistAccount</t>
   </si>
   <si>
@@ -136,6 +139,21 @@
     <t>msg.PairNumItem</t>
   </si>
   <si>
+    <t>msg.C2GW_ReFreshItems</t>
+  </si>
+  <si>
+    <t>msg.FootballItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetReFreshItems</t>
+  </si>
+  <si>
+    <t>msg.C2GW_KickFootBall</t>
+  </si>
+  <si>
+    <t>msg.GW2C_RetKickFootBall</t>
+  </si>
+  <si>
     <t>msg.GW2L_ReqRegist</t>
   </si>
   <si>
@@ -184,12 +202,6 @@
     <t>msg.RS2GW_RetUserDisconnect</t>
   </si>
   <si>
-    <t>msg.GW2RS_MsgTransfer</t>
-  </si>
-  <si>
-    <t>msg.RS2GW_MsgTransfer</t>
-  </si>
-  <si>
     <t>msg.C2GW_BuyItem</t>
   </si>
   <si>
@@ -199,9 +211,6 @@
     <t>msg.GW2C_RemovePackageItem</t>
   </si>
   <si>
-    <t>msg.GW2C_UpdateGold</t>
-  </si>
-  <si>
     <t>msg.GW2C_UpdateYuanbao</t>
   </si>
   <si>
@@ -286,18 +295,6 @@
     <t>msg.SimpleCounter</t>
   </si>
   <si>
-    <t>msg.FreePresentMoney</t>
-  </si>
-  <si>
-    <t>msg.UserWechat</t>
-  </si>
-  <si>
-    <t>msg.UserTask</t>
-  </si>
-  <si>
-    <t>msg.TaskData</t>
-  </si>
-  <si>
     <t>msg.UserBase</t>
   </si>
   <si>
@@ -335,21 +332,6 @@
   </si>
   <si>
     <t>msg.C2GW_PlatformRechargeDone</t>
-  </si>
-  <si>
-    <t>msg.GW2C_SendWechatInfo</t>
-  </si>
-  <si>
-    <t>msg.C2GW_StartLuckyDraw</t>
-  </si>
-  <si>
-    <t>msg.GW2C_LuckyDrawHit</t>
-  </si>
-  <si>
-    <t>msg.GW2C_FreePresentNotify</t>
-  </si>
-  <si>
-    <t>msg.GW2C_SendTaskList</t>
   </si>
   <si>
     <t>TableName: "ProtoId" Package: "table" CSClassHeader: "[System.Serializable]"</t>
@@ -779,7 +761,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1603,54 +1585,6 @@
       </c>
       <c r="B102" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>99</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>100</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>101</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>102</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>103</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>104</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1689,59 +1623,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>Id</t>
   </si>
@@ -301,6 +301,9 @@
     <t>msg.UserAddress</t>
   </si>
   <si>
+    <t>msg.FootBallItem</t>
+  </si>
+  <si>
     <t>msg.ItemData</t>
   </si>
   <si>
@@ -311,6 +314,27 @@
   </si>
   <si>
     <t>msg.MS2Server_BroadCast</t>
+  </si>
+  <si>
+    <t>msg.C2GW_StartThrow</t>
+  </si>
+  <si>
+    <t>msg.C2GW_TargetItem</t>
+  </si>
+  <si>
+    <t>msg.GW2C_HitTarget</t>
+  </si>
+  <si>
+    <t>msg.GW2C_FreeThrow</t>
+  </si>
+  <si>
+    <t>msg.C2GW_StartTiger</t>
+  </si>
+  <si>
+    <t>msg.GW2C_GameResult</t>
+  </si>
+  <si>
+    <t>msg.GW2C_SumGet</t>
   </si>
   <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
@@ -761,7 +785,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1585,6 +1609,70 @@
       </c>
       <c r="B102" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>99</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>100</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>101</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>102</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>103</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>104</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>106</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1623,59 +1711,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Id</t>
   </si>
@@ -313,6 +313,9 @@
     <t>msg.Serialize</t>
   </si>
   <si>
+    <t>msg.CardData{</t>
+  </si>
+  <si>
     <t>msg.MS2Server_BroadCast</t>
   </si>
   <si>
@@ -335,6 +338,15 @@
   </si>
   <si>
     <t>msg.GW2C_SumGet</t>
+  </si>
+  <si>
+    <t>msg.GW2C_NotifyCardState</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqTakeCard</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckTakeCardRet</t>
   </si>
   <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
@@ -785,7 +797,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1673,6 +1685,38 @@
       </c>
       <c r="B110" s="1" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>108</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>109</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>110</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1711,59 +1755,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/proto_index.xlsx
+++ b/docs/excel/proto_index.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>msg.GW2C_AckTakeCardRet</t>
+  </si>
+  <si>
+    <t>msg.C2GW_ReqExChangeToDiamond</t>
+  </si>
+  <si>
+    <t>msg.GW2C_AckExChangeToDiamondRet</t>
   </si>
   <si>
     <t>msg.C2GW_AddDeliveryAddress</t>
@@ -797,7 +803,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1717,6 +1723,22 @@
       </c>
       <c r="B114" s="1" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>111</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>112</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1755,59 +1777,59 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
